--- a/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-11,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,5</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,85</t>
+          <t>-22,87; -2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,75</t>
+          <t>-23,77; -2,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,51</t>
+          <t>-10,54; 44,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,69</t>
+          <t>-31,73; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,88</t>
+          <t>-26,19; 10,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,3</t>
+          <t>-20,69; 19,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,86</t>
+          <t>-21,39; -3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,46</t>
+          <t>-19,18; 0,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 5,01</t>
+          <t>-10,4; 21,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-42,3%</t>
+          <t>-77,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-48,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-85,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-67,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 86,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 66,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 124,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,93; 25,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 110,82</t>
+          <t>-100,0; 212,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 155,95</t>
+          <t>-83,8; 265,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 37,38</t>
+          <t>-100,0; 32,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 46,21</t>
+          <t>-100,0; 34,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 100,35</t>
+          <t>-65,18; 267,02</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,78</t>
+          <t>-3,22; 4,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,77</t>
+          <t>-4,29; 3,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,37</t>
+          <t>-2,45; 6,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,79</t>
+          <t>-5,89; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,74</t>
+          <t>-3,29; 3,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,17</t>
+          <t>-1,93; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,47</t>
+          <t>-3,64; 1,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,62</t>
+          <t>-3,21; 2,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,13</t>
+          <t>-0,93; 5,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,0%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>-42,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-28,89%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-12,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>29,48%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 128,11</t>
+          <t>-35,76; 86,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 46,49</t>
+          <t>-48,14; 66,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 170,01</t>
+          <t>-28,45; 124,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,34; 92,93</t>
+          <t>-75,93; 25,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 71,49</t>
+          <t>-45,74; 110,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,87; 68,53</t>
+          <t>-28,78; 155,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 57,8</t>
+          <t>-45,26; 37,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 36,58</t>
+          <t>-40,4; 46,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 72,87</t>
+          <t>-12,42; 100,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,34</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -2,08</t>
+          <t>-4,91; 2,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -2,07</t>
+          <t>-6,56; 1,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 44,64</t>
+          <t>-4,3; 4,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 0,97</t>
+          <t>-4,11; 3,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 10,29</t>
+          <t>-4,45; 2,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 19,89</t>
+          <t>-4,92; 2,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -3,11</t>
+          <t>-3,41; 2,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 0,5</t>
+          <t>-4,55; 0,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 21,57</t>
+          <t>-3,36; 2,41</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-40,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-77,58%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,65%</t>
+          <t>-21,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-85,82%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-67,48%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>-10,2%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,4; 75,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,05; 42,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,16; 118,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,46; 124,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,37</t>
+          <t>-69,55; 105,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 265,2</t>
+          <t>-75,61; 92,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 32,77</t>
+          <t>-50,3; 57,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,57</t>
+          <t>-65,39; 18,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 267,02</t>
+          <t>-51,45; 61,77</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,96</t>
+          <t>-3,04; 4,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,33</t>
+          <t>-4,67; 1,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 4,8</t>
+          <t>-1,98; 7,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,56</t>
+          <t>-4,43; 2,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,63</t>
+          <t>-4,68; 2,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,58</t>
+          <t>-5,1; 2,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,14</t>
+          <t>-2,91; 2,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,68</t>
+          <t>-3,77; 1,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,41</t>
+          <t>-2,49; 3,13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-14,87%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-40,99%</t>
+          <t>-28,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>-10,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>-28,89%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-32,82%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 75,36</t>
+          <t>-43,07; 128,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 42,12</t>
+          <t>-65,48; 46,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 118,68</t>
+          <t>-31,02; 170,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 124,98</t>
+          <t>-62,34; 92,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 105,5</t>
+          <t>-64,39; 71,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,61; 92,01</t>
+          <t>-74,87; 68,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 57,01</t>
+          <t>-43,07; 57,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 18,89</t>
+          <t>-52,2; 36,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 61,77</t>
+          <t>-37,02; 72,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -2,08</t>
+          <t>-23,59; -2,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -2,07</t>
+          <t>-23,14; -2,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 44,64</t>
+          <t>-9,83; 40,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 0,97</t>
+          <t>-30,73; 0,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 10,29</t>
+          <t>-27,14; 8,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 19,89</t>
+          <t>-20,97; 20,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -3,11</t>
+          <t>-21,74; -2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 0,5</t>
+          <t>-20,97; 1,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 21,57</t>
+          <t>-10,39; 21,23</t>
         </is>
       </c>
     </row>
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 265,2</t>
+          <t>-83,64; 320,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 32,77</t>
+          <t>-100,0; 41,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 34,57</t>
+          <t>-100,0; 57,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 267,02</t>
+          <t>-65,04; 297,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,28</t>
+          <t>-8,39; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,68</t>
+          <t>-7,64; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 7,26</t>
+          <t>-6,31; 7,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 6,87</t>
+          <t>-4,89; 6,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,04</t>
+          <t>-9,06; -0,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,83</t>
+          <t>-5,57; 4,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,02</t>
+          <t>-4,6; 2,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 0,83</t>
+          <t>-6,42; 0,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,21</t>
+          <t>-3,92; 4,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,4; 41,12</t>
+          <t>-73,89; 36,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 86,8</t>
+          <t>-65,72; 71,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 131,12</t>
+          <t>-57,96; 119,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 166,34</t>
+          <t>-56,13; 158,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,94; 25,32</t>
+          <t>-93,13; 8,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 120,9</t>
+          <t>-60,81; 123,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 54,87</t>
+          <t>-49,73; 52,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 15,98</t>
+          <t>-66,85; 11,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,05; 70,71</t>
+          <t>-42,09; 77,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,85</t>
+          <t>-3,43; 4,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,75</t>
+          <t>-4,6; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,51</t>
+          <t>-2,2; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,69</t>
+          <t>-5,89; 0,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,88</t>
+          <t>-3,91; 3,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,3</t>
+          <t>-1,95; 6,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,86</t>
+          <t>-3,5; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,46</t>
+          <t>-3,08; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 5,01</t>
+          <t>-0,84; 5,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 86,72</t>
+          <t>-37,19; 82,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 66,85</t>
+          <t>-48,81; 64,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 124,7</t>
+          <t>-25,39; 124,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,93; 25,97</t>
+          <t>-77,14; 32,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 110,82</t>
+          <t>-49,88; 95,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 155,95</t>
+          <t>-30,01; 165,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 37,38</t>
+          <t>-45,05; 34,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 46,21</t>
+          <t>-39,02; 45,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 100,35</t>
+          <t>-12,33; 100,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 2,96</t>
+          <t>-5,19; 2,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,33</t>
+          <t>-6,3; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 4,8</t>
+          <t>-4,34; 4,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,56</t>
+          <t>-3,75; 3,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,63</t>
+          <t>-4,95; 2,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,58</t>
+          <t>-4,65; 2,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,14</t>
+          <t>-3,5; 2,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,68</t>
+          <t>-4,58; 0,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,41</t>
+          <t>-3,44; 2,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 75,36</t>
+          <t>-63,74; 71,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 42,12</t>
+          <t>-79,44; 48,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 118,68</t>
+          <t>-56,52; 131,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 124,98</t>
+          <t>-62,2; 148,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,55; 105,5</t>
+          <t>-73,36; 94,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,61; 92,01</t>
+          <t>-72,91; 103,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 57,01</t>
+          <t>-50,31; 50,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 18,89</t>
+          <t>-65,49; 25,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 61,77</t>
+          <t>-52,72; 69,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,78</t>
+          <t>-3,65; 4,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,77</t>
+          <t>-5,07; 2,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,37</t>
+          <t>-1,54; 7,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,79</t>
+          <t>-4,38; 2,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,74</t>
+          <t>-4,07; 3,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,17</t>
+          <t>-5,51; 2,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,47</t>
+          <t>-2,97; 2,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,62</t>
+          <t>-3,51; 1,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,13</t>
+          <t>-2,19; 3,59</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 128,11</t>
+          <t>-48,24; 108,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 46,49</t>
+          <t>-65,74; 71,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 170,01</t>
+          <t>-23,31; 174,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-62,34; 92,93</t>
+          <t>-62,68; 84,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,39; 71,49</t>
+          <t>-59,44; 91,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,87; 68,53</t>
+          <t>-72,65; 81,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 57,8</t>
+          <t>-45,28; 52,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 36,58</t>
+          <t>-51,4; 47,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 72,87</t>
+          <t>-34,14; 85,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,33</t>
+          <t>-2,91; 1,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,33</t>
+          <t>-3,88; 0,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,71</t>
+          <t>-1,02; 3,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,77</t>
+          <t>-3,37; 0,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,41</t>
+          <t>-3,29; 0,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,99</t>
+          <t>-2,27; 1,87</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,47</t>
+          <t>-2,45; 0,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; -0,09</t>
+          <t>-2,98; 0,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,07</t>
+          <t>-1,13; 2,26</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 22,87</t>
+          <t>-36,48; 24,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 4,8</t>
+          <t>-47,45; 7,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 63,85</t>
+          <t>-13,52; 64,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 16,19</t>
+          <t>-47,56; 12,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 9,86</t>
+          <t>-46,41; 11,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 39,02</t>
+          <t>-33,66; 38,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 8,63</t>
+          <t>-33,33; 7,71</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,67; -1,35</t>
+          <t>-42,37; 0,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 36,21</t>
+          <t>-14,76; 39,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -2,04</t>
+          <t>-23,94; -2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -2,04</t>
+          <t>-23,71; -2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 40,59</t>
+          <t>-10,9; 39,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 0,91</t>
+          <t>-32,32; 0,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 8,59</t>
+          <t>-28,69; 8,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 20,36</t>
+          <t>-19,88; 18,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -2,72</t>
+          <t>-21,19; -3,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 1,0</t>
+          <t>-18,87; 0,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 21,23</t>
+          <t>-11,05; 20,77</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 88,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 183,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,64; 320,13</t>
+          <t>-82,41; 288,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,67</t>
+          <t>-100,0; 27,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,37</t>
+          <t>-100,0; 107,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 297,79</t>
+          <t>-68,32; 261,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 2,1</t>
+          <t>-8,32; 2,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 4,05</t>
+          <t>-7,1; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 7,4</t>
+          <t>-6,42; 7,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,59</t>
+          <t>-4,29; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; -0,33</t>
+          <t>-9,23; -0,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,75</t>
+          <t>-5,56; 5,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,88</t>
+          <t>-4,84; 2,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,55</t>
+          <t>-6,46; 0,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,53</t>
+          <t>-4,39; 3,84</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 36,86</t>
+          <t>-73,71; 44,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 71,58</t>
+          <t>-63,35; 70,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 119,76</t>
+          <t>-57,6; 123,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 158,59</t>
+          <t>-51,48; 153,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,13; 8,0</t>
+          <t>-91,54; 11,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 123,49</t>
+          <t>-63,1; 118,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 52,4</t>
+          <t>-50,39; 47,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 11,27</t>
+          <t>-69,43; 8,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 77,92</t>
+          <t>-46,23; 65,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,6</t>
+          <t>-3,4; 4,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,55</t>
+          <t>-4,35; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,53</t>
+          <t>-2,49; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 0,93</t>
+          <t>-5,42; 0,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,65</t>
+          <t>-4,08; 3,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,49</t>
+          <t>-1,91; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,9</t>
+          <t>-3,54; 1,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,3</t>
+          <t>-2,93; 2,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,15</t>
+          <t>-1,23; 4,94</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 82,56</t>
+          <t>-39,39; 90,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 64,08</t>
+          <t>-46,1; 66,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 124,66</t>
+          <t>-29,91; 105,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 32,66</t>
+          <t>-74,01; 19,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 95,57</t>
+          <t>-53,65; 86,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 165,87</t>
+          <t>-29,2; 161,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 34,81</t>
+          <t>-42,98; 38,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 45,61</t>
+          <t>-36,84; 47,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 100,16</t>
+          <t>-16,22; 95,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,69</t>
+          <t>-4,85; 2,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 1,35</t>
+          <t>-6,73; 1,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,5</t>
+          <t>-4,41; 4,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,7</t>
+          <t>-3,85; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,31</t>
+          <t>-4,84; 2,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,66</t>
+          <t>-5,11; 2,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,14</t>
+          <t>-3,23; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 0,88</t>
+          <t>-4,27; 0,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,63</t>
+          <t>-3,47; 2,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,74; 71,84</t>
+          <t>-62,38; 73,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,44; 48,15</t>
+          <t>-79,5; 44,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 131,34</t>
+          <t>-56,36; 128,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,2; 148,73</t>
+          <t>-60,24; 123,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 94,22</t>
+          <t>-72,76; 104,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,91; 103,39</t>
+          <t>-75,64; 88,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,31; 50,56</t>
+          <t>-47,45; 59,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 25,97</t>
+          <t>-63,66; 27,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 69,37</t>
+          <t>-52,59; 66,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,08</t>
+          <t>-3,52; 4,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,31</t>
+          <t>-4,91; 1,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,0</t>
+          <t>-1,85; 7,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,75</t>
+          <t>-4,72; 2,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,28</t>
+          <t>-4,15; 3,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,5</t>
+          <t>-5,43; 2,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,26</t>
+          <t>-2,99; 2,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 1,63</t>
+          <t>-3,7; 1,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,59</t>
+          <t>-2,3; 3,51</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 108,18</t>
+          <t>-49,34; 129,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 71,29</t>
+          <t>-66,96; 52,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 174,79</t>
+          <t>-27,94; 194,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 84,87</t>
+          <t>-64,21; 80,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 91,24</t>
+          <t>-57,48; 94,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,65; 81,66</t>
+          <t>-74,64; 68,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,28; 52,81</t>
+          <t>-44,06; 56,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-51,4; 47,31</t>
+          <t>-52,2; 39,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 85,93</t>
+          <t>-34,6; 82,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,45</t>
+          <t>-2,95; 1,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,41</t>
+          <t>-3,75; 0,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,92</t>
+          <t>-1,07; 3,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,6</t>
+          <t>-3,25; 0,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,5</t>
+          <t>-3,43; 0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,87</t>
+          <t>-2,13; 1,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,4</t>
+          <t>-2,45; 0,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,07</t>
+          <t>-2,99; -0,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,26</t>
+          <t>-1,14; 2,16</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 24,81</t>
+          <t>-37,8; 23,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 7,34</t>
+          <t>-48,29; 2,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 64,94</t>
+          <t>-13,68; 66,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 12,78</t>
+          <t>-45,84; 18,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 11,23</t>
+          <t>-49,3; 8,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 38,56</t>
+          <t>-32,39; 40,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 7,71</t>
+          <t>-33,95; 7,77</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 0,97</t>
+          <t>-41,27; -2,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 39,24</t>
+          <t>-16,45; 36,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1003-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,34</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,94; -2,13</t>
+          <t>-7,04; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,71; -2,05</t>
+          <t>-9,79; -0,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 39,47</t>
+          <t>-5,98; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 0,1</t>
+          <t>-8,98; 0,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 8,02</t>
+          <t>-8,07; 1,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 18,91</t>
+          <t>-5,93; 7,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -3,23</t>
+          <t>-6,56; 1,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 0,96</t>
+          <t>-7,65; -0,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 20,77</t>
+          <t>-4,24; 4,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-14,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-58,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-77,58%</t>
+          <t>-48,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-48,65%</t>
+          <t>-33,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-85,82%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-67,48%</t>
+          <t>-45,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,74; 72,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,6; 3,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,16; 91,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 88,54</t>
+          <t>-78,34; 10,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 183,24</t>
+          <t>-69,32; 33,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,41; 288,42</t>
+          <t>-56,09; 112,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,5</t>
+          <t>-59,89; 16,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,14</t>
+          <t>-71,06; -2,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 261,75</t>
+          <t>-41,48; 66,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,06</t>
+          <t>-5,89; 0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,03</t>
+          <t>-3,29; 3,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,42</t>
+          <t>-1,97; 6,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 6,8</t>
+          <t>-3,22; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,29</t>
+          <t>-4,29; 3,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,09</t>
+          <t>-2,32; 6,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,59</t>
+          <t>-3,64; 1,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,54</t>
+          <t>-3,21; 2,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,84</t>
+          <t>-0,91; 5,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-42,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,83%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-64,52%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,92%</t>
+          <t>-12,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>31,13%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 44,41</t>
+          <t>-75,93; 25,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 70,15</t>
+          <t>-45,74; 110,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 123,63</t>
+          <t>-27,82; 168,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 153,7</t>
+          <t>-35,76; 86,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,54; 11,75</t>
+          <t>-48,14; 66,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,1; 118,88</t>
+          <t>-28,13; 128,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 47,71</t>
+          <t>-45,26; 37,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 8,84</t>
+          <t>-40,4; 46,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 65,07</t>
+          <t>-12,11; 99,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-0,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,87</t>
+          <t>-4,11; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,33</t>
+          <t>-4,45; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,94</t>
+          <t>-5,4; 1,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,57</t>
+          <t>-4,91; 2,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,52</t>
+          <t>-6,56; 1,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,29</t>
+          <t>-4,4; 4,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,96</t>
+          <t>-3,41; 2,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,46</t>
+          <t>-4,55; 0,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,94</t>
+          <t>-3,63; 2,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,53%</t>
+          <t>-21,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>-32,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-42,3%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-40,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>-16,01%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 90,78</t>
+          <t>-61,46; 124,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,1; 66,11</t>
+          <t>-69,55; 105,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 105,01</t>
+          <t>-80,59; 69,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,01; 19,27</t>
+          <t>-61,4; 75,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 86,78</t>
+          <t>-79,05; 42,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 161,79</t>
+          <t>-58,57; 115,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 38,74</t>
+          <t>-50,3; 57,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 47,31</t>
+          <t>-65,39; 18,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 95,29</t>
+          <t>-54,63; 55,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,72</t>
+          <t>-4,43; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,29</t>
+          <t>-4,68; 2,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 4,55</t>
+          <t>-5,04; 2,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,45</t>
+          <t>-3,04; 4,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,61</t>
+          <t>-4,67; 1,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 2,21</t>
+          <t>-1,85; 8,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,38</t>
+          <t>-2,91; 2,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,86</t>
+          <t>-3,77; 1,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,46</t>
+          <t>-2,3; 3,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,87%</t>
+          <t>-16,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-40,99%</t>
+          <t>-10,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-27,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>-28,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>-5,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-32,82%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,38; 73,24</t>
+          <t>-62,34; 92,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 44,5</t>
+          <t>-64,39; 71,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 128,05</t>
+          <t>-74,64; 70,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 123,93</t>
+          <t>-43,07; 128,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 104,57</t>
+          <t>-65,48; 46,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 88,67</t>
+          <t>-29,17; 194,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 59,4</t>
+          <t>-43,07; 57,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 27,44</t>
+          <t>-52,2; 36,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 66,66</t>
+          <t>-34,89; 84,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>-1,57</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,47</t>
+          <t>-3,24; 0,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,86</t>
+          <t>-3,52; 0,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,27</t>
+          <t>-2,45; 1,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,63</t>
+          <t>-2,86; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,1</t>
+          <t>-3,59; 0,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,08</t>
+          <t>-0,93; 3,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,42</t>
+          <t>-2,37; 0,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,59</t>
+          <t>-3,02; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,51</t>
+          <t>-1,18; 1,97</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>-21,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,0%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>-25,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,89%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 129,74</t>
+          <t>-46,57; 16,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,96; 52,1</t>
+          <t>-49,62; 9,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 194,53</t>
+          <t>-36,66; 35,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 80,43</t>
+          <t>-36,97; 22,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 94,39</t>
+          <t>-46,7; 4,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,64; 68,86</t>
+          <t>-13,13; 65,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 56,5</t>
+          <t>-33,41; 8,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 39,3</t>
+          <t>-41,67; -1,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 82,63</t>
+          <t>-15,78; 36,45</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 1,46</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 0,12</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 3,75</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 0,87</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 0,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 1,91</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 0,41</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; -0,14</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 2,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-11,71%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-25,05%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>18,62%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-21,26%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-23,55%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-4,83%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-16,0%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-24,38%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-37,8; 23,99</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-48,29; 2,31</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-13,68; 66,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-45,84; 18,49</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-49,3; 8,3</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 40,13</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-33,95; 7,77</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-41,27; -2,37</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; 36,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
